--- a/Banco Central/3/3/Tasas de captación marginal bancaria 2021 - Diaria.xlsx
+++ b/Banco Central/3/3/Tasas de captación marginal bancaria 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3681,6 +3693,86 @@
         <v>-0.51</v>
       </c>
     </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>0.65</v>
+      </c>
+      <c r="C144">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D144">
+        <v>1.31</v>
+      </c>
+      <c r="E144">
+        <v>1.84</v>
+      </c>
+      <c r="F144">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>0.65</v>
+      </c>
+      <c r="C145">
+        <v>0.95</v>
+      </c>
+      <c r="D145">
+        <v>1.32</v>
+      </c>
+      <c r="E145">
+        <v>1.87</v>
+      </c>
+      <c r="F145">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>0.66</v>
+      </c>
+      <c r="C146">
+        <v>0.95</v>
+      </c>
+      <c r="D146">
+        <v>1.32</v>
+      </c>
+      <c r="E146">
+        <v>1.91</v>
+      </c>
+      <c r="F146">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C147">
+        <v>0.89</v>
+      </c>
+      <c r="D147">
+        <v>1.31</v>
+      </c>
+      <c r="E147">
+        <v>1.92</v>
+      </c>
+      <c r="F147">
+        <v>-0.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/3/3/Tasas de captación marginal bancaria 2021 - Diaria.xlsx
+++ b/Banco Central/3/3/Tasas de captación marginal bancaria 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Serie</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3773,6 +3776,26 @@
         <v>-0.45</v>
       </c>
     </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>0.65</v>
+      </c>
+      <c r="C148">
+        <v>0.93</v>
+      </c>
+      <c r="D148">
+        <v>1.31</v>
+      </c>
+      <c r="E148">
+        <v>1.89</v>
+      </c>
+      <c r="F148">
+        <v>-0.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
